--- a/biology/Médecine/Narco_News/Narco_News.xlsx
+++ b/biology/Médecine/Narco_News/Narco_News.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Narco News  est une association américaine, fondée par Al Giordano en 2000. C'est également le nom de son journal en ligne dont le but est d'informer les citoyens des États-Unis à propos des actions gouvernementales contre la drogue en Amérique latine.
 Il est soutenu financièrement par le Fund for Authentic Journalism.
-Le bulletin a pu critiquer le rapport de 2005 du Washington Office on Latin America (WOLA) sur la « guerre contre la drogue » pour sa timidité et les impasses sur certains sujets clés[1].
+Le bulletin a pu critiquer le rapport de 2005 du Washington Office on Latin America (WOLA) sur la « guerre contre la drogue » pour sa timidité et les impasses sur certains sujets clés.
 </t>
         </is>
       </c>
